--- a/data/tehilim-data/17.xlsx
+++ b/data/tehilim-data/17.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="236">
   <si>
     <t>original</t>
   </si>
@@ -34,10 +34,16 @@
     <t>Давида</t>
   </si>
   <si>
-    <t>שִׁמְעָה יְהוָה</t>
+    <t>שִׁמְעָה</t>
   </si>
   <si>
-    <t>Услышь, Господи</t>
+    <t>Услышь</t>
+  </si>
+  <si>
+    <t>יְהוָה</t>
+  </si>
+  <si>
+    <t>Господи</t>
   </si>
   <si>
     <t>צֶדֶק</t>
@@ -187,10 +193,16 @@
     <t>человеческих</t>
   </si>
   <si>
-    <t>בִּדְבַר-שְׂפָתֶיךָ</t>
+    <t>בִּדְבַר</t>
   </si>
   <si>
-    <t>по слову уст Твоих</t>
+    <t xml:space="preserve">по слову </t>
+  </si>
+  <si>
+    <t>שְׂפָתֶיךָ</t>
+  </si>
+  <si>
+    <t>уст Твоих</t>
   </si>
   <si>
     <t>אֲנִי</t>
@@ -205,10 +217,16 @@
     <t>хранил</t>
   </si>
   <si>
-    <t>אָרְחוֹת פָּרִיץ</t>
+    <t xml:space="preserve">אָרְחוֹת </t>
   </si>
   <si>
-    <t>пути насильников</t>
+    <t xml:space="preserve">пути </t>
+  </si>
+  <si>
+    <t>פָּרִיץ</t>
+  </si>
+  <si>
+    <t>насильников</t>
   </si>
   <si>
     <t>ה</t>
@@ -232,10 +250,16 @@
     <t>на путях Твоих</t>
   </si>
   <si>
-    <t>בַל-נָמוֹטוּ</t>
+    <t>בַל</t>
   </si>
   <si>
-    <t>чтобы не поколебались</t>
+    <t xml:space="preserve">чтобы не </t>
+  </si>
+  <si>
+    <t>נָמוֹטוּ</t>
+  </si>
+  <si>
+    <t>поколебались</t>
   </si>
   <si>
     <t>פְּעָמָי</t>
@@ -265,10 +289,16 @@
     <t>Боже</t>
   </si>
   <si>
-    <t>הַט-אָזְנְךָ</t>
+    <t>הַט</t>
   </si>
   <si>
-    <t>приклони ухо Твое</t>
+    <t xml:space="preserve">приклони </t>
+  </si>
+  <si>
+    <t>אָזְנְךָ</t>
+  </si>
+  <si>
+    <t>ухо Твое</t>
   </si>
   <si>
     <t>לִי</t>
@@ -364,10 +394,16 @@
     <t>ט</t>
   </si>
   <si>
-    <t>מִפְּנֵי רְשָׁעִים</t>
+    <t xml:space="preserve">מִפְּנֵי </t>
   </si>
   <si>
-    <t>от нечестивых</t>
+    <t>от</t>
+  </si>
+  <si>
+    <t>רְשָׁעִים</t>
+  </si>
+  <si>
+    <t>нечестивых</t>
   </si>
   <si>
     <t>זֹדוּ</t>
@@ -388,10 +424,16 @@
     <t>душу мою</t>
   </si>
   <si>
-    <t>יַקִּיפוּ עָלָי</t>
+    <t xml:space="preserve">יַקִּיפוּ </t>
   </si>
   <si>
-    <t>окружающих меня</t>
+    <t xml:space="preserve">окружающих </t>
+  </si>
+  <si>
+    <t>עָלָי</t>
+  </si>
+  <si>
+    <t>меня</t>
   </si>
   <si>
     <t>י</t>
@@ -518,12 +560,6 @@
   </si>
   <si>
     <t>Восстань</t>
-  </si>
-  <si>
-    <t>יְהוָה</t>
-  </si>
-  <si>
-    <t>Господи</t>
   </si>
   <si>
     <t>קַדְּמָה</t>
@@ -689,7 +725,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -701,13 +737,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -716,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -729,6 +775,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,10 +1159,10 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2"/>
@@ -1334,8 +1386,8 @@
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4">
-        <v>2.0</v>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1364,10 +1416,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
+      <c r="B14" s="4">
+        <v>2.0</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1558,8 +1610,8 @@
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4">
-        <v>3.0</v>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1588,10 +1640,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>38</v>
+      <c r="B21" s="4">
+        <v>3.0</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1846,8 +1898,8 @@
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="4">
-        <v>4.0</v>
+      <c r="B29" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1876,10 +1928,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>55</v>
+      <c r="B30" s="4">
+        <v>4.0</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2006,7 +2058,7 @@
       <c r="A34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="2"/>
@@ -2070,8 +2122,8 @@
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="4">
-        <v>5.0</v>
+      <c r="B36" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2100,10 +2152,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2131,11 +2183,11 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>69</v>
+      <c r="A38" s="5" t="s">
+        <v>70</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>70</v>
+      <c r="B38" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2164,10 +2216,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>72</v>
+      <c r="B39" s="4">
+        <v>5.0</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2231,7 +2283,7 @@
         <v>75</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2260,10 +2312,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
-      <c r="B42" s="4">
-        <v>6.0</v>
+      <c r="B42" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2292,10 +2344,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2323,11 +2375,11 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>78</v>
+      <c r="A44" s="5" t="s">
+        <v>81</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>79</v>
+      <c r="B44" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2356,10 +2408,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2388,10 +2440,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>83</v>
+      <c r="B46" s="4">
+        <v>6.0</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2420,7 +2472,7 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>85</v>
@@ -2550,8 +2602,8 @@
       <c r="A51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="4">
-        <v>7.0</v>
+      <c r="B51" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2579,11 +2631,11 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>93</v>
+      <c r="A52" s="5" t="s">
+        <v>94</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>94</v>
+      <c r="B52" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2612,10 +2664,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2644,10 +2696,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2676,10 +2728,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2708,10 +2760,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>102</v>
+      <c r="B56" s="4">
+        <v>7.0</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2774,8 +2826,8 @@
       <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="4">
-        <v>8.0</v>
+      <c r="B58" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2804,10 +2856,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2836,10 +2888,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2868,10 +2920,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2900,10 +2952,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2932,10 +2984,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>115</v>
+      <c r="B63" s="4">
+        <v>8.0</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2966,8 +3018,8 @@
       <c r="A64" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="4">
-        <v>9.0</v>
+      <c r="B64" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2996,10 +3048,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3028,10 +3080,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3060,10 +3112,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3092,10 +3144,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3124,10 +3176,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>126</v>
+      <c r="B69" s="4">
+        <v>9.0</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3158,8 +3210,8 @@
       <c r="A70" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="4">
-        <v>10.0</v>
+      <c r="B70" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3187,11 +3239,11 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
-        <v>128</v>
+      <c r="A71" s="5" t="s">
+        <v>129</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>129</v>
+      <c r="B71" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3220,10 +3272,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3252,10 +3304,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3284,10 +3336,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3316,10 +3368,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3347,11 +3399,11 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
-        <v>138</v>
+      <c r="A76" s="5" t="s">
+        <v>139</v>
       </c>
-      <c r="B76" s="4">
-        <v>11.0</v>
+      <c r="B76" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3380,10 +3432,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>140</v>
+      <c r="B77" s="4">
+        <v>10.0</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3412,10 +3464,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3444,10 +3496,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3476,10 +3528,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3508,10 +3560,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3540,10 +3592,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3572,10 +3624,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B83" s="4">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3604,10 +3656,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3636,10 +3688,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3668,10 +3720,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3700,10 +3752,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3732,10 +3784,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3764,10 +3816,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3796,10 +3848,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>165</v>
+      <c r="B90" s="4">
+        <v>12.0</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3830,8 +3882,8 @@
       <c r="A91" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="4">
-        <v>13.0</v>
+      <c r="B91" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3860,10 +3912,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3892,10 +3944,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3924,10 +3976,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3956,10 +4008,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3988,10 +4040,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4020,10 +4072,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4052,10 +4104,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>124</v>
+      <c r="B98" s="4">
+        <v>13.0</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4084,10 +4136,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4116,10 +4168,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4148,10 +4200,10 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B101" s="4">
-        <v>14.0</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4244,10 +4296,10 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4276,10 +4328,10 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4308,10 +4360,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4340,10 +4392,10 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4372,10 +4424,10 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>190</v>
+      <c r="B108" s="4">
+        <v>14.0</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4404,10 +4456,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4436,10 +4488,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4468,10 +4520,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4500,10 +4552,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4532,10 +4584,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4564,10 +4616,10 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4596,10 +4648,10 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4628,10 +4680,10 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4660,10 +4712,10 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
-      <c r="B117" s="4">
-        <v>15.0</v>
+      <c r="B117" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4692,7 +4744,7 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>211</v>
@@ -4886,8 +4938,8 @@
       <c r="A124" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>223</v>
+      <c r="B124" s="4">
+        <v>15.0</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4915,8 +4967,12 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -4943,8 +4999,12 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
+      <c r="A126" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -4971,8 +5031,12 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -4999,8 +5063,12 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+      <c r="A128" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5027,8 +5095,12 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5055,8 +5127,12 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5083,8 +5159,12 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+      <c r="A131" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -29442,6 +29522,202 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
